--- a/pred_ohlcv/54_21/2020-01-15 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 ENJ ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-205555.0568</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-205555.0568</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-231808.1333</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-231773.1333</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-232297.1333</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-232297.1333</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-232146.0186</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-235932.0186</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-230042.0186</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-230042.0186</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-230042.0186</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-238802.0186</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-234014.5414</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-243182.2308</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-244752.2308</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-268739.811</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-282866.811</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-547585.1884</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-544106.1446999999</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-544106.1446999999</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-414356.0962128333</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-414172.9856128333</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-409172.9856128333</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-403167.8118128333</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-786539.2084605857</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-815553.0475605857</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-818926.0475605857</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-818957.1868605857</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-818957.1868605857</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-818957.1868605857</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-818950.1868605857</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-834973.1868605857</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-834973.1868605857</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-834956.4690605857</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-844987.6804605857</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-852016.1435605858</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-852016.1435605858</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-845756.7086605858</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-828643.9165605858</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-830583.2506605858</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-823541.7987605858</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-834492.0083605858</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-834492.0083605858</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-834992.0083605858</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-840982.1303605858</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-870329.0231605858</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-870329.0231605858</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-889925.6472605858</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-881988.3330605858</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-881988.3330605858</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-15 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 ENJ ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-205555.0568</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-205555.0568</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-231808.1333</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-231773.1333</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-232297.1333</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-232297.1333</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-232146.0186</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-235932.0186</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-230042.0186</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-230042.0186</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-230042.0186</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-238802.0186</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-234014.5414</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-243182.2308</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-244752.2308</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-268739.811</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-282866.811</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-282866.811</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-547585.1884</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-544106.1446999999</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-544106.1446999999</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-414356.0962128333</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-414172.9856128333</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-409172.9856128333</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-403167.8118128333</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-807304.2603605856</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-786539.2084605857</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-786539.2084605857</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-815560.0475605857</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-815553.0475605857</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-818926.0475605857</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-818926.0475605857</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-818957.1868605857</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-818957.1868605857</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-818957.1868605857</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-818950.1868605857</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-834973.1868605857</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-834973.1868605857</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-834956.4690605857</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-844987.6804605857</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-852016.1435605858</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-852016.1435605858</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-845756.7086605858</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-828643.9165605858</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-830583.2506605858</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-823541.7987605858</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-834492.0083605858</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-834492.0083605858</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-834992.0083605858</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-834992.0083605858</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-834992.0083605858</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-824906.1318605858</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-824906.1318605858</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-824906.1318605858</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-824906.1318605858</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-840982.1303605858</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-847330.9442605857</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-866066.0602605857</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-870329.0231605858</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-870329.0231605858</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-870329.0231605858</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-870329.0231605858</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-889925.6472605858</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-881988.3330605858</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-881988.3330605858</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
